--- a/data/trans_dic/iP12_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP12_R-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,44%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,46</t>
+          <t>0,0; 19,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,58</t>
+          <t>0,0; 16,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,6</t>
+          <t>3,76; 30,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,21</t>
+          <t>0,0; 18,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,01</t>
+          <t>10,53; 42,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,28</t>
+          <t>3,59; 31,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,08</t>
+          <t>2,61; 34,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 10,73</t>
+          <t>0,0; 30,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,13</t>
+          <t>6,78; 25,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,94</t>
+          <t>3,34; 18,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,82</t>
+          <t>4,5; 22,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,04</t>
+          <t>1,88; 20,8</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 8,03</t>
+          <t>5,36; 11,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 14,18</t>
+          <t>3,86; 9,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,07</t>
+          <t>4,59; 10,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 13,39</t>
+          <t>4,69; 10,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,83</t>
+          <t>3,52; 9,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,07</t>
+          <t>6,61; 13,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 10,16</t>
+          <t>7,15; 13,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,71</t>
+          <t>4,57; 10,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,93</t>
+          <t>5,24; 9,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 11,43</t>
+          <t>5,66; 9,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,0</t>
+          <t>6,55; 10,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 10,16</t>
+          <t>5,37; 9,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>8,67%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,64</t>
+          <t>3,02; 9,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,27</t>
+          <t>7,58; 15,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 30,01</t>
+          <t>6,26; 13,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,47</t>
+          <t>5,22; 13,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 42,42</t>
+          <t>5,97; 13,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 31,13</t>
+          <t>3,62; 9,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 34,79</t>
+          <t>5,06; 11,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,2</t>
+          <t>5,3; 12,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 25,45</t>
+          <t>4,98; 10,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 18,43</t>
+          <t>6,17; 11,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 22,18</t>
+          <t>6,58; 11,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 20,8</t>
+          <t>6,13; 11,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>7,69%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,19</t>
+          <t>3,12; 8,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,58; 15,5</t>
+          <t>7,01; 14,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 13,69</t>
+          <t>2,43; 7,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,75</t>
+          <t>6,32; 13,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 13,78</t>
+          <t>1,43; 5,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,78</t>
+          <t>4,8; 11,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,75</t>
+          <t>4,39; 10,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,93</t>
+          <t>3,61; 9,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,29</t>
+          <t>2,75; 5,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,17; 11,49</t>
+          <t>6,66; 11,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,63</t>
+          <t>3,98; 8,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,85</t>
+          <t>5,57; 10,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP12_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP12_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,64</t>
+          <t>0,0; 19,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,27</t>
+          <t>0,0; 15,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 30,01</t>
+          <t>3,69; 29,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,53; 42,42</t>
+          <t>10,9; 44,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 31,13</t>
+          <t>3,87; 34,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 34,79</t>
+          <t>2,61; 33,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 25,45</t>
+          <t>7,88; 25,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 18,43</t>
+          <t>3,36; 17,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 22,18</t>
+          <t>4,34; 23,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 12,92</t>
+          <t>4,45; 12,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 12,07</t>
+          <t>4,39; 12,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,88</t>
+          <t>1,15; 7,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 12,17</t>
+          <t>3,58; 11,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 10,29</t>
+          <t>2,92; 10,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 18,1</t>
+          <t>7,82; 18,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,25</t>
+          <t>2,37; 9,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,71</t>
+          <t>3,69; 11,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,06</t>
+          <t>4,58; 9,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,7; 12,74</t>
+          <t>6,6; 13,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,04</t>
+          <t>2,47; 6,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,69</t>
+          <t>4,52; 10,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,46</t>
+          <t>5,34; 11,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,58</t>
+          <t>3,82; 9,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,6</t>
+          <t>4,84; 10,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,21</t>
+          <t>4,45; 9,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,01</t>
+          <t>3,93; 9,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,28</t>
+          <t>6,56; 12,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,08</t>
+          <t>6,98; 13,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 10,73</t>
+          <t>4,44; 10,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,13</t>
+          <t>5,3; 9,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,94</t>
+          <t>5,82; 9,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,82</t>
+          <t>6,49; 10,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,04</t>
+          <t>5,1; 9,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,19</t>
+          <t>3,03; 9,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 15,5</t>
+          <t>7,39; 15,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 13,69</t>
+          <t>6,42; 13,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,75</t>
+          <t>5,24; 13,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 13,78</t>
+          <t>5,78; 13,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,78</t>
+          <t>3,62; 9,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,75</t>
+          <t>4,92; 11,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,93</t>
+          <t>5,56; 13,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,29</t>
+          <t>5,25; 9,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 11,49</t>
+          <t>6,13; 11,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 11,63</t>
+          <t>6,46; 11,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,85</t>
+          <t>6,2; 11,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 8,03</t>
+          <t>3,09; 8,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,01; 14,18</t>
+          <t>6,79; 14,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,07</t>
+          <t>2,53; 7,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 13,39</t>
+          <t>6,21; 14,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,83</t>
+          <t>1,7; 6,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,07</t>
+          <t>4,6; 10,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 10,16</t>
+          <t>4,43; 10,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,71</t>
+          <t>3,55; 9,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,93</t>
+          <t>2,93; 6,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 11,43</t>
+          <t>6,7; 11,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,0</t>
+          <t>4,02; 7,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,57; 10,16</t>
+          <t>5,61; 10,24</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,07</t>
+          <t>5,18; 8,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 10,27</t>
+          <t>6,73; 10,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,05</t>
+          <t>5,19; 8,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,73</t>
+          <t>6,28; 9,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,15</t>
+          <t>5,08; 8,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,37</t>
+          <t>6,94; 10,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,63</t>
+          <t>6,45; 9,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,23</t>
+          <t>5,77; 9,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 7,59</t>
+          <t>5,5; 7,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 10,0</t>
+          <t>7,38; 9,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,36</t>
+          <t>6,1; 8,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,79</t>
+          <t>6,46; 8,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP12_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP12_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,91</t>
+          <t>0,0; 24,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,42</t>
+          <t>0,0; 14,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 29,45</t>
+          <t>0,0; 26,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,47</t>
+          <t>0,0; 21,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,9; 44,68</t>
+          <t>10,39; 41,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 34,55</t>
+          <t>3,7; 33,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 33,2</t>
+          <t>2,52; 32,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,2</t>
+          <t>0,0; 28,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 25,38</t>
+          <t>6,81; 26,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 17,9</t>
+          <t>3,16; 17,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 23,12</t>
+          <t>4,48; 24,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 20,8</t>
+          <t>1,8; 21,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,32</t>
+          <t>4,66; 12,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,31</t>
+          <t>4,29; 11,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 7,23</t>
+          <t>1,16; 7,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 11,89</t>
+          <t>3,59; 11,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 10,1</t>
+          <t>2,76; 10,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 18,1</t>
+          <t>7,27; 17,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,6</t>
+          <t>2,63; 10,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,42</t>
+          <t>3,94; 11,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,75</t>
+          <t>4,68; 9,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 13,09</t>
+          <t>6,73; 12,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,92</t>
+          <t>2,37; 6,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,46</t>
+          <t>4,46; 10,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 11,1</t>
+          <t>5,37; 11,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,13</t>
+          <t>4,06; 9,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,32</t>
+          <t>5,01; 10,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 9,95</t>
+          <t>4,5; 10,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,38</t>
+          <t>3,84; 9,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 12,95</t>
+          <t>6,63; 12,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 13,29</t>
+          <t>6,92; 13,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 10,2</t>
+          <t>4,58; 10,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,32</t>
+          <t>5,33; 9,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,84</t>
+          <t>5,84; 9,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,74</t>
+          <t>6,63; 10,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,29</t>
+          <t>5,16; 9,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,15</t>
+          <t>3,02; 9,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 15,52</t>
+          <t>7,65; 15,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,78</t>
+          <t>6,27; 13,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 13,67</t>
+          <t>5,13; 13,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 13,75</t>
+          <t>5,95; 13,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,5</t>
+          <t>3,56; 9,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,53</t>
+          <t>5,1; 11,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 13,22</t>
+          <t>5,2; 12,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 9,92</t>
+          <t>5,22; 10,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,38</t>
+          <t>6,2; 11,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,55</t>
+          <t>6,46; 11,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,79</t>
+          <t>6,21; 11,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,15</t>
+          <t>2,88; 8,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,13</t>
+          <t>7,09; 14,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,36</t>
+          <t>2,42; 7,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 14,29</t>
+          <t>6,23; 14,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,38</t>
+          <t>1,62; 6,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 10,8</t>
+          <t>4,52; 10,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 10,52</t>
+          <t>4,27; 10,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,55</t>
+          <t>3,7; 9,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,22</t>
+          <t>2,85; 5,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 11,19</t>
+          <t>6,61; 11,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,82</t>
+          <t>3,95; 7,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 10,24</t>
+          <t>5,58; 10,38</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,07</t>
+          <t>5,21; 8,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,23</t>
+          <t>6,86; 10,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,16</t>
+          <t>5,16; 8,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,96</t>
+          <t>6,21; 9,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,23</t>
+          <t>5,01; 8,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,56</t>
+          <t>6,94; 10,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,45; 9,75</t>
+          <t>6,49; 9,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,21</t>
+          <t>5,79; 9,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,56</t>
+          <t>5,45; 7,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 9,98</t>
+          <t>7,42; 9,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,1; 8,31</t>
+          <t>6,17; 8,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 8,83</t>
+          <t>6,38; 8,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP12_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP12_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,14</t>
+          <t>5,61; 13,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,78</t>
+          <t>8,25; 17,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,82</t>
+          <t>3,52; 10,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,75</t>
+          <t>4,31; 12,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,39; 41,17</t>
+          <t>4,62; 11,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 33,65</t>
+          <t>3,53; 10,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 32,32</t>
+          <t>2,24; 8,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,71</t>
+          <t>3,11; 10,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 26,51</t>
+          <t>5,82; 11,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 17,46</t>
+          <t>6,6; 12,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 24,04</t>
+          <t>3,64; 8,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 21,44</t>
+          <t>4,74; 10,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>7,93%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,33%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 12,2</t>
+          <t>3,52; 9,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,72</t>
+          <t>6,61; 13,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,39</t>
+          <t>7,15; 13,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 11,52</t>
+          <t>4,61; 10,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,17</t>
+          <t>5,36; 11,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 17,61</t>
+          <t>3,86; 9,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,04</t>
+          <t>4,59; 10,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 11,52</t>
+          <t>4,6; 10,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,85</t>
+          <t>5,24; 9,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 12,94</t>
+          <t>5,66; 9,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,81</t>
+          <t>6,55; 10,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,21</t>
+          <t>5,3; 9,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>8,16%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,09</t>
+          <t>5,97; 13,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,57</t>
+          <t>3,62; 9,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 10,68</t>
+          <t>5,06; 11,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,23</t>
+          <t>4,0; 11,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,13</t>
+          <t>3,02; 9,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 12,74</t>
+          <t>7,58; 15,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 13,33</t>
+          <t>6,26; 13,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,36</t>
+          <t>5,27; 14,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,23</t>
+          <t>4,98; 10,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,97</t>
+          <t>6,17; 11,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,69</t>
+          <t>6,58; 11,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,06</t>
+          <t>5,37; 11,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,17</t>
+          <t>1,43; 5,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,43</t>
+          <t>4,8; 11,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 13,52</t>
+          <t>4,39; 10,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 13,63</t>
+          <t>3,6; 9,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,87</t>
+          <t>3,12; 8,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,55</t>
+          <t>7,01; 14,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 11,5</t>
+          <t>2,43; 7,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 12,89</t>
+          <t>6,4; 13,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,1</t>
+          <t>2,75; 5,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,31</t>
+          <t>6,66; 11,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 11,45</t>
+          <t>3,98; 8,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,73</t>
+          <t>5,71; 10,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,28</t>
+          <t>5,04; 8,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 14,55</t>
+          <t>7,04; 10,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,3</t>
+          <t>6,25; 9,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,05</t>
+          <t>5,52; 8,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,05</t>
+          <t>5,14; 8,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,75</t>
+          <t>6,82; 10,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 10,72</t>
+          <t>5,06; 8,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,74</t>
+          <t>6,08; 9,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,87</t>
+          <t>5,44; 7,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,3</t>
+          <t>7,47; 10,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,91</t>
+          <t>6,07; 8,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,38</t>
+          <t>6,25; 8,73</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,44%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,92%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7,19%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 8,14</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 10,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 8,21</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 9,88</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,01; 8,14</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 10,45</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 9,77</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,79; 9,14</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 7,57</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 9,86</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>6,17; 8,32</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 8,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
